--- a/Aktiviteetit/Vuosi_2025/Aktiviteetit_Kesäkuu.xlsx
+++ b/Aktiviteetit/Vuosi_2025/Aktiviteetit_Kesäkuu.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Activities_Kesäkuu" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="activities" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Aktiviteetit/Vuosi_2025/Aktiviteetit_Kesäkuu.xlsx
+++ b/Aktiviteetit/Vuosi_2025/Aktiviteetit_Kesäkuu.xlsx
@@ -484,10 +484,8 @@
       <c r="B2" t="n">
         <v>15.5</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01:34:05</t>
-        </is>
+      <c r="C2" t="n">
+        <v>5645</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -520,10 +518,8 @@
       <c r="B3" t="n">
         <v>10.27</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>00:46:54</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2814</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -556,10 +552,8 @@
       <c r="B4" t="n">
         <v>7.42</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>01:35:30</t>
-        </is>
+      <c r="C4" t="n">
+        <v>5730</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -592,10 +586,8 @@
       <c r="B5" t="n">
         <v>7.84</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>00:36:20</t>
-        </is>
+      <c r="C5" t="n">
+        <v>2180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -628,10 +620,8 @@
       <c r="B6" t="n">
         <v>13.63</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>01:21:54</t>
-        </is>
+      <c r="C6" t="n">
+        <v>4914</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -664,10 +654,8 @@
       <c r="B7" t="n">
         <v>4.7</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>01:16:24</t>
-        </is>
+      <c r="C7" t="n">
+        <v>4584</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -700,10 +688,8 @@
       <c r="B8" t="n">
         <v>3.46</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>00:20:36</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1236</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -734,10 +720,8 @@
       <c r="B9" t="n">
         <v>4.58</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>01:12:11</t>
-        </is>
+      <c r="C9" t="n">
+        <v>4331</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -768,10 +752,8 @@
       <c r="B10" t="n">
         <v>7.19</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>00:47:31</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2851</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -802,10 +784,8 @@
       <c r="B11" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>00:44:31</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2671</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -836,10 +816,8 @@
       <c r="B12" t="n">
         <v>16.28</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>01:44:35</t>
-        </is>
+      <c r="C12" t="n">
+        <v>6275</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/Aktiviteetit/Vuosi_2025/Aktiviteetit_Kesäkuu.xlsx
+++ b/Aktiviteetit/Vuosi_2025/Aktiviteetit_Kesäkuu.xlsx
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Evening Run</t>
+          <t>Säbä</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -778,7 +778,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intervalli</t>
+          <t>Intervallit</t>
         </is>
       </c>
       <c r="B11" t="n">
